--- a/snr.xlsx
+++ b/snr.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gérémy\Documents\Université\3e année\Session 6\Physique expérimentale V\Données\H24_Laue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7496F232-2CE0-48C6-B2D8-713D22BDF51E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{636F0903-D113-4A81-8F67-D9E4DCC60704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{764AEB3C-2E0E-4606-93FB-C3C91F9E9BC0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{764AEB3C-2E0E-4606-93FB-C3C91F9E9BC0}"/>
   </bookViews>
   <sheets>
     <sheet name="SNR" sheetId="1" r:id="rId1"/>
+    <sheet name="CNR" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>bruit_moyen</t>
   </si>
@@ -102,6 +103,60 @@
   </si>
   <si>
     <t>snr_moyen</t>
+  </si>
+  <si>
+    <t>std_point</t>
+  </si>
+  <si>
+    <t>point1_aire</t>
+  </si>
+  <si>
+    <t>point1_moyen</t>
+  </si>
+  <si>
+    <t>point1_min</t>
+  </si>
+  <si>
+    <t>point1_max</t>
+  </si>
+  <si>
+    <t>point1_std</t>
+  </si>
+  <si>
+    <t>int_moyen</t>
+  </si>
+  <si>
+    <t>point2_aire</t>
+  </si>
+  <si>
+    <t>point2_moyen</t>
+  </si>
+  <si>
+    <t>point2_min</t>
+  </si>
+  <si>
+    <t>point2_max</t>
+  </si>
+  <si>
+    <t>point2_std</t>
+  </si>
+  <si>
+    <t>point3_aire</t>
+  </si>
+  <si>
+    <t>point3_moyen</t>
+  </si>
+  <si>
+    <t>point3_min</t>
+  </si>
+  <si>
+    <t>point3_max</t>
+  </si>
+  <si>
+    <t>point3_std</t>
+  </si>
+  <si>
+    <t>CNR</t>
   </si>
 </sst>
 </file>
@@ -109,7 +164,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -140,15 +195,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -500,7 +558,380 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>CNR</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>CNR!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>52</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>CNR!$S$2:$S$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.8894752706877238</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0013017456454754</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1106965557570656</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1476437651682332</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1771839172538874</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2959161469601126</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4327471327445394</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-617A-4FBA-AB42-C1DB461D4706}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="763979008"/>
+        <c:axId val="763971328"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="763979008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="763971328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="763971328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="1.8"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="763979008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1056,6 +1487,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1081,6 +2028,49 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>685397</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>80056</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>642299</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>7299</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{250A4691-B850-49CC-BA96-9C5CB63ACCD6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1416,8 +2406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B130366-37C4-4613-A9FB-33FD37824DBE}">
   <dimension ref="A1:W8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+    <sheetView topLeftCell="E1" zoomScale="87" workbookViewId="0">
+      <selection activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1429,542 +2419,566 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="3">
         <v>208</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>192.91800000000001</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>90</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>271</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="3">
         <v>19608</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="2">
         <v>11.441000000000001</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <v>0</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="1">
         <v>83</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="3">
         <v>17000</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="2">
         <v>10.034000000000001</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="1">
         <v>0</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="1">
         <v>108</v>
       </c>
-      <c r="N2" s="1">
+      <c r="N2" s="3">
         <v>7200</v>
       </c>
-      <c r="O2" s="3">
+      <c r="O2" s="2">
         <v>39.585000000000001</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P2" s="1">
         <v>0</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q2" s="1">
         <v>157</v>
       </c>
-      <c r="R2" s="3">
+      <c r="R2" s="2">
         <f>AVERAGE(G2,K2,O2)</f>
         <v>20.353333333333335</v>
       </c>
-      <c r="S2" s="3">
-        <f>C2/G2</f>
+      <c r="S2" s="2">
+        <f t="shared" ref="S2:S8" si="0">C2/G2</f>
         <v>16.861987588497509</v>
       </c>
-      <c r="T2" s="3">
-        <f>C2/K2</f>
+      <c r="T2" s="2">
+        <f t="shared" ref="T2:T8" si="1">C2/K2</f>
         <v>19.22643013753239</v>
       </c>
-      <c r="U2" s="3">
+      <c r="U2" s="2">
         <f>C2/O2</f>
         <v>4.8735126942023497</v>
       </c>
-      <c r="V2" s="3">
+      <c r="V2" s="2">
         <f>C2/R2</f>
         <v>9.4784474287585976</v>
       </c>
-      <c r="W2" s="3"/>
+      <c r="W2" s="2">
+        <f>SQRT(((D2-C2)^2+(E2-C2)^2)/2)</f>
+        <v>91.347997920042005</v>
+      </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>4</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2">
+      <c r="B3" s="3"/>
+      <c r="C3" s="1">
         <v>197.053</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>93</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>283</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="3">
+      <c r="F3" s="3"/>
+      <c r="G3" s="2">
         <v>14.545999999999999</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <v>0</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="1">
         <v>82</v>
       </c>
-      <c r="J3" s="1"/>
-      <c r="K3" s="3">
+      <c r="J3" s="3"/>
+      <c r="K3" s="2">
         <v>13.321</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="1">
         <v>0</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="1">
         <v>75</v>
       </c>
-      <c r="N3" s="1"/>
-      <c r="O3" s="3">
+      <c r="N3" s="3"/>
+      <c r="O3" s="2">
         <v>43.396999999999998</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P3" s="1">
         <v>18</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="Q3" s="1">
         <v>165</v>
       </c>
-      <c r="R3" s="3">
-        <f t="shared" ref="R3:R8" si="0">AVERAGE(G3,K3,O3)</f>
+      <c r="R3" s="2">
+        <f t="shared" ref="R3:R8" si="2">AVERAGE(G3,K3,O3)</f>
         <v>23.754666666666665</v>
       </c>
-      <c r="S3" s="3">
-        <f>C3/G3</f>
+      <c r="S3" s="2">
+        <f t="shared" si="0"/>
         <v>13.546885741784683</v>
       </c>
-      <c r="T3" s="3">
-        <f>C3/K3</f>
+      <c r="T3" s="2">
+        <f t="shared" si="1"/>
         <v>14.79265820884318</v>
       </c>
-      <c r="U3" s="3">
-        <f t="shared" ref="U3:U8" si="1">C3/O3</f>
+      <c r="U3" s="2">
+        <f t="shared" ref="U3:U8" si="3">C3/O3</f>
         <v>4.5407055787266399</v>
       </c>
-      <c r="V3" s="3">
-        <f t="shared" ref="V3:V8" si="2">C3/R3</f>
+      <c r="V3" s="2">
+        <f t="shared" ref="V3:V8" si="4">C3/R3</f>
         <v>8.2953384598114059</v>
       </c>
-      <c r="W3" s="3"/>
+      <c r="W3" s="2">
+        <f t="shared" ref="W3:W8" si="5">SQRT(((D3-C3)^2+(E3-C3)^2)/2)</f>
+        <v>95.430376762328663</v>
+      </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>9</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="2">
+      <c r="B4" s="3"/>
+      <c r="C4" s="1">
         <v>202.846</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>92</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>265</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="3">
+      <c r="F4" s="3"/>
+      <c r="G4" s="2">
         <v>16.03</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="1">
         <v>0</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="1">
         <v>130</v>
       </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="3">
+      <c r="J4" s="3"/>
+      <c r="K4" s="2">
         <v>14.461</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="1">
         <v>0</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="1">
         <v>81</v>
       </c>
-      <c r="N4" s="1"/>
-      <c r="O4" s="3">
+      <c r="N4" s="3"/>
+      <c r="O4" s="2">
         <v>44.947000000000003</v>
       </c>
-      <c r="P4" s="2">
+      <c r="P4" s="1">
         <v>11</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="Q4" s="1">
         <v>103</v>
       </c>
-      <c r="R4" s="3">
+      <c r="R4" s="2">
+        <f t="shared" si="2"/>
+        <v>25.146000000000001</v>
+      </c>
+      <c r="S4" s="2">
         <f t="shared" si="0"/>
-        <v>25.146000000000001</v>
-      </c>
-      <c r="S4" s="3">
-        <f>C4/G4</f>
         <v>12.65414847161572</v>
       </c>
-      <c r="T4" s="3">
-        <f>C4/K4</f>
+      <c r="T4" s="2">
+        <f t="shared" si="1"/>
         <v>14.027107392296521</v>
       </c>
-      <c r="U4" s="3">
-        <f t="shared" si="1"/>
+      <c r="U4" s="2">
+        <f t="shared" si="3"/>
         <v>4.513004204952499</v>
       </c>
-      <c r="V4" s="3">
-        <f t="shared" si="2"/>
+      <c r="V4" s="2">
+        <f t="shared" si="4"/>
         <v>8.0667302950767521</v>
       </c>
-      <c r="W4" s="3"/>
+      <c r="W4" s="2">
+        <f t="shared" si="5"/>
+        <v>89.860879786478833</v>
+      </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>17</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="2">
+      <c r="B5" s="3"/>
+      <c r="C5" s="1">
         <v>201.84100000000001</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>99</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>268</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="3">
+      <c r="F5" s="3"/>
+      <c r="G5" s="2">
         <v>18.850999999999999</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <v>0</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="1">
         <v>122</v>
       </c>
-      <c r="J5" s="1"/>
-      <c r="K5" s="3">
+      <c r="J5" s="3"/>
+      <c r="K5" s="2">
         <v>17.254999999999999</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="1">
         <v>0</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="1">
         <v>43</v>
       </c>
-      <c r="N5" s="1"/>
-      <c r="O5" s="3">
+      <c r="N5" s="3"/>
+      <c r="O5" s="2">
         <v>47.447000000000003</v>
       </c>
-      <c r="P5" s="2">
+      <c r="P5" s="1">
         <v>0</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="Q5" s="1">
         <v>165</v>
       </c>
-      <c r="R5" s="3">
+      <c r="R5" s="2">
+        <f t="shared" si="2"/>
+        <v>27.850999999999999</v>
+      </c>
+      <c r="S5" s="2">
         <f t="shared" si="0"/>
-        <v>27.850999999999999</v>
-      </c>
-      <c r="S5" s="3">
-        <f>C5/G5</f>
         <v>10.707177338072253</v>
       </c>
-      <c r="T5" s="3">
-        <f>C5/K5</f>
+      <c r="T5" s="2">
+        <f t="shared" si="1"/>
         <v>11.697536945812809</v>
       </c>
-      <c r="U5" s="3">
-        <f t="shared" si="1"/>
+      <c r="U5" s="2">
+        <f t="shared" si="3"/>
         <v>4.2540308133285558</v>
       </c>
-      <c r="V5" s="3">
-        <f t="shared" si="2"/>
+      <c r="V5" s="2">
+        <f t="shared" si="4"/>
         <v>7.2471724534128041</v>
       </c>
-      <c r="W5" s="3"/>
+      <c r="W5" s="2">
+        <f t="shared" si="5"/>
+        <v>86.467579363597309</v>
+      </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>25</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="2">
+      <c r="B6" s="3"/>
+      <c r="C6" s="1">
         <v>209.68299999999999</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>101</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>274</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="3">
+      <c r="F6" s="3"/>
+      <c r="G6" s="2">
         <v>23.422999999999998</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="1">
         <v>0</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="1">
         <v>88</v>
       </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="3">
+      <c r="J6" s="3"/>
+      <c r="K6" s="2">
         <v>21.818999999999999</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="1">
         <v>0</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6" s="1">
         <v>72</v>
       </c>
-      <c r="N6" s="1"/>
-      <c r="O6" s="3">
+      <c r="N6" s="3"/>
+      <c r="O6" s="2">
         <v>52.16</v>
       </c>
-      <c r="P6" s="2">
+      <c r="P6" s="1">
         <v>26</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="Q6" s="1">
         <v>95</v>
       </c>
-      <c r="R6" s="3">
+      <c r="R6" s="2">
+        <f t="shared" si="2"/>
+        <v>32.467333333333329</v>
+      </c>
+      <c r="S6" s="2">
         <f t="shared" si="0"/>
-        <v>32.467333333333329</v>
-      </c>
-      <c r="S6" s="3">
-        <f>C6/G6</f>
         <v>8.9520129786961533</v>
       </c>
-      <c r="T6" s="3">
-        <f>C6/K6</f>
+      <c r="T6" s="2">
+        <f t="shared" si="1"/>
         <v>9.6101104541913021</v>
       </c>
-      <c r="U6" s="3">
-        <f t="shared" si="1"/>
+      <c r="U6" s="2">
+        <f t="shared" si="3"/>
         <v>4.0199961656441721</v>
       </c>
-      <c r="V6" s="3">
-        <f t="shared" si="2"/>
+      <c r="V6" s="2">
+        <f t="shared" si="4"/>
         <v>6.4582760107595334</v>
       </c>
-      <c r="W6" s="3"/>
+      <c r="W6" s="2">
+        <f t="shared" si="5"/>
+        <v>89.299134872629082</v>
+      </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>36</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="2">
+      <c r="B7" s="3"/>
+      <c r="C7" s="1">
         <v>215.779</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>111</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>278</v>
       </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="3">
+      <c r="F7" s="3"/>
+      <c r="G7" s="2">
         <v>31.161999999999999</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="1">
         <v>4</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="1">
         <v>109</v>
       </c>
-      <c r="J7" s="1"/>
-      <c r="K7" s="3">
+      <c r="J7" s="3"/>
+      <c r="K7" s="2">
         <v>28.646999999999998</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="1">
         <v>0</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="1">
         <v>106</v>
       </c>
-      <c r="N7" s="1"/>
-      <c r="O7" s="3">
+      <c r="N7" s="3"/>
+      <c r="O7" s="2">
         <v>59.439</v>
       </c>
-      <c r="P7" s="2">
+      <c r="P7" s="1">
         <v>34</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="Q7" s="1">
         <v>112</v>
       </c>
-      <c r="R7" s="3">
+      <c r="R7" s="2">
+        <f t="shared" si="2"/>
+        <v>39.749333333333333</v>
+      </c>
+      <c r="S7" s="2">
         <f t="shared" si="0"/>
-        <v>39.749333333333333</v>
-      </c>
-      <c r="S7" s="3">
-        <f>C7/G7</f>
         <v>6.924427186958475</v>
       </c>
-      <c r="T7" s="3">
-        <f>C7/K7</f>
+      <c r="T7" s="2">
+        <f t="shared" si="1"/>
         <v>7.5323419555276301</v>
       </c>
-      <c r="U7" s="3">
-        <f t="shared" si="1"/>
+      <c r="U7" s="2">
+        <f t="shared" si="3"/>
         <v>3.6302595938693449</v>
       </c>
-      <c r="V7" s="3">
-        <f t="shared" si="2"/>
+      <c r="V7" s="2">
+        <f t="shared" si="4"/>
         <v>5.4284935596404136</v>
       </c>
-      <c r="W7" s="3"/>
+      <c r="W7" s="2">
+        <f t="shared" si="5"/>
+        <v>86.16870569412076</v>
+      </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>52</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="2">
+      <c r="B8" s="3"/>
+      <c r="C8" s="1">
         <v>223.322</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>117</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>287</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="3">
+      <c r="F8" s="3"/>
+      <c r="G8" s="2">
         <v>40.158999999999999</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="1">
         <v>15</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="1">
         <v>124</v>
       </c>
-      <c r="J8" s="1"/>
-      <c r="K8" s="3">
+      <c r="J8" s="3"/>
+      <c r="K8" s="2">
         <v>37.067999999999998</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8" s="1">
         <v>0</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M8" s="1">
         <v>78</v>
       </c>
-      <c r="N8" s="1"/>
-      <c r="O8" s="3">
+      <c r="N8" s="3"/>
+      <c r="O8" s="2">
         <v>68.275000000000006</v>
       </c>
-      <c r="P8" s="2">
+      <c r="P8" s="1">
         <v>41</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="Q8" s="1">
         <v>200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="R8" s="2">
+        <f t="shared" si="2"/>
+        <v>48.500666666666667</v>
+      </c>
+      <c r="S8" s="2">
         <f t="shared" si="0"/>
-        <v>48.500666666666667</v>
-      </c>
-      <c r="S8" s="3">
-        <f>C8/G8</f>
         <v>5.5609452426604253</v>
       </c>
-      <c r="T8" s="3">
-        <f>C8/K8</f>
+      <c r="T8" s="2">
+        <f t="shared" si="1"/>
         <v>6.0246573864249493</v>
       </c>
-      <c r="U8" s="3">
-        <f t="shared" si="1"/>
+      <c r="U8" s="2">
+        <f t="shared" si="3"/>
         <v>3.2709190772610763</v>
       </c>
-      <c r="V8" s="3">
-        <f t="shared" si="2"/>
+      <c r="V8" s="2">
+        <f t="shared" si="4"/>
         <v>4.6045140272985936</v>
       </c>
-      <c r="W8" s="3"/>
+      <c r="W8" s="2">
+        <f t="shared" si="5"/>
+        <v>87.633484947250608</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1976,4 +2990,549 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31EC91F2-A236-48A7-BFD9-1FEB6CE54CF2}">
+  <dimension ref="A1:X8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="87" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2:S8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="8" max="8" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>229</v>
+      </c>
+      <c r="C2">
+        <v>151.44999999999999</v>
+      </c>
+      <c r="D2">
+        <v>67</v>
+      </c>
+      <c r="E2">
+        <v>224</v>
+      </c>
+      <c r="F2" s="1">
+        <f>SQRT(((D2-C2)^2+(E2-C2)^2)/2)</f>
+        <v>78.725170688922617</v>
+      </c>
+      <c r="G2" s="3">
+        <v>208</v>
+      </c>
+      <c r="H2">
+        <v>185.58699999999999</v>
+      </c>
+      <c r="I2">
+        <v>77</v>
+      </c>
+      <c r="J2">
+        <v>277</v>
+      </c>
+      <c r="K2" s="1">
+        <f>SQRT(((I2-H2)^2+(J2-H2)^2)/2)</f>
+        <v>100.36800570400909</v>
+      </c>
+      <c r="L2" s="3">
+        <v>216</v>
+      </c>
+      <c r="M2">
+        <v>192.583</v>
+      </c>
+      <c r="N2">
+        <v>77</v>
+      </c>
+      <c r="O2">
+        <v>277</v>
+      </c>
+      <c r="P2" s="1">
+        <f>SQRT(((N2-M2)^2+(O2-M2)^2)/2)</f>
+        <v>101.20686680754424</v>
+      </c>
+      <c r="Q2" s="1">
+        <f>AVERAGE(C2,H2,M2)</f>
+        <v>176.54</v>
+      </c>
+      <c r="R2" s="1">
+        <f>AVERAGE(F2,K2,P2)</f>
+        <v>93.433347733491985</v>
+      </c>
+      <c r="S2" s="4">
+        <f>Q2/R2</f>
+        <v>1.8894752706877238</v>
+      </c>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3">
+        <v>153.21</v>
+      </c>
+      <c r="D3">
+        <v>72</v>
+      </c>
+      <c r="E3">
+        <v>217</v>
+      </c>
+      <c r="F3" s="1">
+        <f>SQRT(((D3-C3)^2+(E3-C3)^2)/2)</f>
+        <v>73.021326336899691</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3">
+        <v>193.51900000000001</v>
+      </c>
+      <c r="I3">
+        <v>77</v>
+      </c>
+      <c r="J3">
+        <v>268</v>
+      </c>
+      <c r="K3" s="1">
+        <f>SQRT(((I3-H3)^2+(J3-H3)^2)/2)</f>
+        <v>97.785726775434881</v>
+      </c>
+      <c r="L3" s="3"/>
+      <c r="M3">
+        <v>181.5</v>
+      </c>
+      <c r="N3">
+        <v>75</v>
+      </c>
+      <c r="O3">
+        <v>259</v>
+      </c>
+      <c r="P3" s="1">
+        <f t="shared" ref="P3:P8" si="0">SQRT(((N3-M3)^2+(O3-M3)^2)/2)</f>
+        <v>93.135653753006963</v>
+      </c>
+      <c r="Q3" s="1">
+        <f>AVERAGE(C3,H3,M3)</f>
+        <v>176.07633333333334</v>
+      </c>
+      <c r="R3" s="1">
+        <f t="shared" ref="R3:R8" si="1">AVERAGE(F3,K3,P3)</f>
+        <v>87.980902288447183</v>
+      </c>
+      <c r="S3" s="4">
+        <f t="shared" ref="S3:S8" si="2">Q3/R3</f>
+        <v>2.0013017456454754</v>
+      </c>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4">
+        <v>160.74700000000001</v>
+      </c>
+      <c r="D4">
+        <v>82</v>
+      </c>
+      <c r="E4">
+        <v>219</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" ref="F4:F8" si="3">SQRT(((D4-C4)^2+(E4-C4)^2)/2)</f>
+        <v>69.262190327768295</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4">
+        <v>193.38499999999999</v>
+      </c>
+      <c r="I4">
+        <v>77</v>
+      </c>
+      <c r="J4">
+        <v>263</v>
+      </c>
+      <c r="K4" s="1">
+        <f t="shared" ref="K4:K8" si="4">SQRT(((I4-H4)^2+(J4-H4)^2)/2)</f>
+        <v>95.895037541053185</v>
+      </c>
+      <c r="L4" s="3"/>
+      <c r="M4">
+        <v>185.53200000000001</v>
+      </c>
+      <c r="N4">
+        <v>78</v>
+      </c>
+      <c r="O4">
+        <v>255</v>
+      </c>
+      <c r="P4" s="1">
+        <f t="shared" si="0"/>
+        <v>90.523295476910263</v>
+      </c>
+      <c r="Q4" s="1">
+        <f t="shared" ref="Q4:Q8" si="5">AVERAGE(C4,H4,M4)</f>
+        <v>179.88800000000001</v>
+      </c>
+      <c r="R4" s="1">
+        <f t="shared" si="1"/>
+        <v>85.226841115243914</v>
+      </c>
+      <c r="S4" s="4">
+        <f t="shared" si="2"/>
+        <v>2.1106965557570656</v>
+      </c>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>17</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5">
+        <v>161.34100000000001</v>
+      </c>
+      <c r="D5">
+        <v>84</v>
+      </c>
+      <c r="E5">
+        <v>214</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="3"/>
+        <v>66.161168981510599</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5">
+        <v>198.572</v>
+      </c>
+      <c r="I5">
+        <v>80</v>
+      </c>
+      <c r="J5">
+        <v>270</v>
+      </c>
+      <c r="K5" s="1">
+        <f t="shared" si="4"/>
+        <v>97.880739596715344</v>
+      </c>
+      <c r="L5" s="3"/>
+      <c r="M5">
+        <v>187.708</v>
+      </c>
+      <c r="N5">
+        <v>80</v>
+      </c>
+      <c r="O5">
+        <v>258</v>
+      </c>
+      <c r="P5" s="1">
+        <f t="shared" si="0"/>
+        <v>90.944979322665191</v>
+      </c>
+      <c r="Q5" s="1">
+        <f t="shared" si="5"/>
+        <v>182.54033333333334</v>
+      </c>
+      <c r="R5" s="1">
+        <f t="shared" si="1"/>
+        <v>84.99562930029704</v>
+      </c>
+      <c r="S5" s="4">
+        <f t="shared" si="2"/>
+        <v>2.1476437651682332</v>
+      </c>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>25</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6">
+        <v>166.428</v>
+      </c>
+      <c r="D6">
+        <v>85</v>
+      </c>
+      <c r="E6">
+        <v>222</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="3"/>
+        <v>69.709276168957601</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6">
+        <v>199.505</v>
+      </c>
+      <c r="I6">
+        <v>83</v>
+      </c>
+      <c r="J6">
+        <v>274</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" si="4"/>
+        <v>97.78271843735989</v>
+      </c>
+      <c r="L6" s="3"/>
+      <c r="M6">
+        <v>192.27799999999999</v>
+      </c>
+      <c r="N6">
+        <v>87</v>
+      </c>
+      <c r="O6">
+        <v>261</v>
+      </c>
+      <c r="P6" s="1">
+        <f t="shared" si="0"/>
+        <v>88.899298557412706</v>
+      </c>
+      <c r="Q6" s="1">
+        <f t="shared" si="5"/>
+        <v>186.07033333333334</v>
+      </c>
+      <c r="R6" s="1">
+        <f t="shared" si="1"/>
+        <v>85.463764387910075</v>
+      </c>
+      <c r="S6" s="4">
+        <f t="shared" si="2"/>
+        <v>2.1771839172538874</v>
+      </c>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>36</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7">
+        <v>172.55</v>
+      </c>
+      <c r="D7">
+        <v>95</v>
+      </c>
+      <c r="E7">
+        <v>224</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="3"/>
+        <v>65.806933525275284</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7">
+        <v>207.63</v>
+      </c>
+      <c r="I7">
+        <v>94</v>
+      </c>
+      <c r="J7">
+        <v>285</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="shared" si="4"/>
+        <v>97.205693763277054</v>
+      </c>
+      <c r="L7" s="3"/>
+      <c r="M7">
+        <v>201.375</v>
+      </c>
+      <c r="N7">
+        <v>95</v>
+      </c>
+      <c r="O7">
+        <v>272</v>
+      </c>
+      <c r="P7" s="1">
+        <f t="shared" si="0"/>
+        <v>90.287128789213355</v>
+      </c>
+      <c r="Q7" s="1">
+        <f t="shared" si="5"/>
+        <v>193.85166666666669</v>
+      </c>
+      <c r="R7" s="1">
+        <f t="shared" si="1"/>
+        <v>84.433252025921888</v>
+      </c>
+      <c r="S7" s="4">
+        <f t="shared" si="2"/>
+        <v>2.2959161469601126</v>
+      </c>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>52</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8">
+        <v>181.92599999999999</v>
+      </c>
+      <c r="D8">
+        <v>101</v>
+      </c>
+      <c r="E8">
+        <v>237</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="3"/>
+        <v>69.21763847459691</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8">
+        <v>216.053</v>
+      </c>
+      <c r="I8">
+        <v>107</v>
+      </c>
+      <c r="J8">
+        <v>291</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" si="4"/>
+        <v>93.567113928986828</v>
+      </c>
+      <c r="L8" s="3"/>
+      <c r="M8">
+        <v>207.05099999999999</v>
+      </c>
+      <c r="N8">
+        <v>105</v>
+      </c>
+      <c r="O8">
+        <v>273</v>
+      </c>
+      <c r="P8" s="1">
+        <f t="shared" si="0"/>
+        <v>85.917626835242601</v>
+      </c>
+      <c r="Q8" s="1">
+        <f t="shared" si="5"/>
+        <v>201.67666666666665</v>
+      </c>
+      <c r="R8" s="1">
+        <f t="shared" si="1"/>
+        <v>82.900793079608789</v>
+      </c>
+      <c r="S8" s="4">
+        <f t="shared" si="2"/>
+        <v>2.4327471327445394</v>
+      </c>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="G2:G8"/>
+    <mergeCell ref="L2:L8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/snr.xlsx
+++ b/snr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gérémy\Documents\Université\3e année\Session 6\Physique expérimentale V\Données\H24_Laue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{636F0903-D113-4A81-8F67-D9E4DCC60704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{867CAEBB-008B-43CA-AD01-6E102AFDC993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{764AEB3C-2E0E-4606-93FB-C3C91F9E9BC0}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t>bruit_moyen</t>
   </si>
@@ -157,6 +157,12 @@
   </si>
   <si>
     <t>CNR</t>
+  </si>
+  <si>
+    <t>std</t>
+  </si>
+  <si>
+    <t>CNR_err</t>
   </si>
 </sst>
 </file>
@@ -203,10 +209,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -668,7 +674,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>CNR!$S$2:$S$8</c:f>
+              <c:f>CNR!$T$2:$T$8</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2493,7 +2499,7 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="4">
         <v>208</v>
       </c>
       <c r="C2" s="1">
@@ -2505,7 +2511,7 @@
       <c r="E2" s="1">
         <v>271</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="4">
         <v>19608</v>
       </c>
       <c r="G2" s="2">
@@ -2517,7 +2523,7 @@
       <c r="I2" s="1">
         <v>83</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="4">
         <v>17000</v>
       </c>
       <c r="K2" s="2">
@@ -2529,7 +2535,7 @@
       <c r="M2" s="1">
         <v>108</v>
       </c>
-      <c r="N2" s="3">
+      <c r="N2" s="4">
         <v>7200</v>
       </c>
       <c r="O2" s="2">
@@ -2570,7 +2576,7 @@
       <c r="A3" s="1">
         <v>4</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="4"/>
       <c r="C3" s="1">
         <v>197.053</v>
       </c>
@@ -2580,7 +2586,7 @@
       <c r="E3" s="1">
         <v>283</v>
       </c>
-      <c r="F3" s="3"/>
+      <c r="F3" s="4"/>
       <c r="G3" s="2">
         <v>14.545999999999999</v>
       </c>
@@ -2590,7 +2596,7 @@
       <c r="I3" s="1">
         <v>82</v>
       </c>
-      <c r="J3" s="3"/>
+      <c r="J3" s="4"/>
       <c r="K3" s="2">
         <v>13.321</v>
       </c>
@@ -2600,7 +2606,7 @@
       <c r="M3" s="1">
         <v>75</v>
       </c>
-      <c r="N3" s="3"/>
+      <c r="N3" s="4"/>
       <c r="O3" s="2">
         <v>43.396999999999998</v>
       </c>
@@ -2639,7 +2645,7 @@
       <c r="A4" s="1">
         <v>9</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="4"/>
       <c r="C4" s="1">
         <v>202.846</v>
       </c>
@@ -2649,7 +2655,7 @@
       <c r="E4" s="1">
         <v>265</v>
       </c>
-      <c r="F4" s="3"/>
+      <c r="F4" s="4"/>
       <c r="G4" s="2">
         <v>16.03</v>
       </c>
@@ -2659,7 +2665,7 @@
       <c r="I4" s="1">
         <v>130</v>
       </c>
-      <c r="J4" s="3"/>
+      <c r="J4" s="4"/>
       <c r="K4" s="2">
         <v>14.461</v>
       </c>
@@ -2669,7 +2675,7 @@
       <c r="M4" s="1">
         <v>81</v>
       </c>
-      <c r="N4" s="3"/>
+      <c r="N4" s="4"/>
       <c r="O4" s="2">
         <v>44.947000000000003</v>
       </c>
@@ -2708,7 +2714,7 @@
       <c r="A5" s="1">
         <v>17</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="4"/>
       <c r="C5" s="1">
         <v>201.84100000000001</v>
       </c>
@@ -2718,7 +2724,7 @@
       <c r="E5" s="1">
         <v>268</v>
       </c>
-      <c r="F5" s="3"/>
+      <c r="F5" s="4"/>
       <c r="G5" s="2">
         <v>18.850999999999999</v>
       </c>
@@ -2728,7 +2734,7 @@
       <c r="I5" s="1">
         <v>122</v>
       </c>
-      <c r="J5" s="3"/>
+      <c r="J5" s="4"/>
       <c r="K5" s="2">
         <v>17.254999999999999</v>
       </c>
@@ -2738,7 +2744,7 @@
       <c r="M5" s="1">
         <v>43</v>
       </c>
-      <c r="N5" s="3"/>
+      <c r="N5" s="4"/>
       <c r="O5" s="2">
         <v>47.447000000000003</v>
       </c>
@@ -2777,7 +2783,7 @@
       <c r="A6" s="1">
         <v>25</v>
       </c>
-      <c r="B6" s="3"/>
+      <c r="B6" s="4"/>
       <c r="C6" s="1">
         <v>209.68299999999999</v>
       </c>
@@ -2787,7 +2793,7 @@
       <c r="E6" s="1">
         <v>274</v>
       </c>
-      <c r="F6" s="3"/>
+      <c r="F6" s="4"/>
       <c r="G6" s="2">
         <v>23.422999999999998</v>
       </c>
@@ -2797,7 +2803,7 @@
       <c r="I6" s="1">
         <v>88</v>
       </c>
-      <c r="J6" s="3"/>
+      <c r="J6" s="4"/>
       <c r="K6" s="2">
         <v>21.818999999999999</v>
       </c>
@@ -2807,7 +2813,7 @@
       <c r="M6" s="1">
         <v>72</v>
       </c>
-      <c r="N6" s="3"/>
+      <c r="N6" s="4"/>
       <c r="O6" s="2">
         <v>52.16</v>
       </c>
@@ -2846,7 +2852,7 @@
       <c r="A7" s="1">
         <v>36</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="4"/>
       <c r="C7" s="1">
         <v>215.779</v>
       </c>
@@ -2856,7 +2862,7 @@
       <c r="E7" s="1">
         <v>278</v>
       </c>
-      <c r="F7" s="3"/>
+      <c r="F7" s="4"/>
       <c r="G7" s="2">
         <v>31.161999999999999</v>
       </c>
@@ -2866,7 +2872,7 @@
       <c r="I7" s="1">
         <v>109</v>
       </c>
-      <c r="J7" s="3"/>
+      <c r="J7" s="4"/>
       <c r="K7" s="2">
         <v>28.646999999999998</v>
       </c>
@@ -2876,7 +2882,7 @@
       <c r="M7" s="1">
         <v>106</v>
       </c>
-      <c r="N7" s="3"/>
+      <c r="N7" s="4"/>
       <c r="O7" s="2">
         <v>59.439</v>
       </c>
@@ -2915,7 +2921,7 @@
       <c r="A8" s="1">
         <v>52</v>
       </c>
-      <c r="B8" s="3"/>
+      <c r="B8" s="4"/>
       <c r="C8" s="1">
         <v>223.322</v>
       </c>
@@ -2925,7 +2931,7 @@
       <c r="E8" s="1">
         <v>287</v>
       </c>
-      <c r="F8" s="3"/>
+      <c r="F8" s="4"/>
       <c r="G8" s="2">
         <v>40.158999999999999</v>
       </c>
@@ -2935,7 +2941,7 @@
       <c r="I8" s="1">
         <v>124</v>
       </c>
-      <c r="J8" s="3"/>
+      <c r="J8" s="4"/>
       <c r="K8" s="2">
         <v>37.067999999999998</v>
       </c>
@@ -2945,7 +2951,7 @@
       <c r="M8" s="1">
         <v>78</v>
       </c>
-      <c r="N8" s="3"/>
+      <c r="N8" s="4"/>
       <c r="O8" s="2">
         <v>68.275000000000006</v>
       </c>
@@ -2994,10 +3000,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31EC91F2-A236-48A7-BFD9-1FEB6CE54CF2}">
-  <dimension ref="A1:X8"/>
+  <dimension ref="A1:Y8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="87" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2:S8"/>
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3005,10 +3011,10 @@
     <col min="8" max="8" width="11.36328125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.36328125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -3061,22 +3067,27 @@
         <v>28</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
+      <c r="U1" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="4">
         <v>229</v>
       </c>
       <c r="C2">
@@ -3092,7 +3103,7 @@
         <f>SQRT(((D2-C2)^2+(E2-C2)^2)/2)</f>
         <v>78.725170688922617</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="4">
         <v>208</v>
       </c>
       <c r="H2">
@@ -3108,7 +3119,7 @@
         <f>SQRT(((I2-H2)^2+(J2-H2)^2)/2)</f>
         <v>100.36800570400909</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="4">
         <v>216</v>
       </c>
       <c r="M2">
@@ -3129,24 +3140,31 @@
         <v>176.54</v>
       </c>
       <c r="R2" s="1">
+        <f>_xlfn.STDEV.S(C2,H2,M2)</f>
+        <v>22.008341123310409</v>
+      </c>
+      <c r="S2" s="1">
         <f>AVERAGE(F2,K2,P2)</f>
         <v>93.433347733491985</v>
       </c>
-      <c r="S2" s="4">
-        <f>Q2/R2</f>
+      <c r="T2" s="3">
+        <f>Q2/S2</f>
         <v>1.8894752706877238</v>
       </c>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
+      <c r="U2" s="2">
+        <f>R2/S2</f>
+        <v>0.23555124221907045</v>
+      </c>
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>4</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="4"/>
       <c r="C3">
         <v>153.21</v>
       </c>
@@ -3160,7 +3178,7 @@
         <f>SQRT(((D3-C3)^2+(E3-C3)^2)/2)</f>
         <v>73.021326336899691</v>
       </c>
-      <c r="G3" s="3"/>
+      <c r="G3" s="4"/>
       <c r="H3">
         <v>193.51900000000001</v>
       </c>
@@ -3174,7 +3192,7 @@
         <f>SQRT(((I3-H3)^2+(J3-H3)^2)/2)</f>
         <v>97.785726775434881</v>
       </c>
-      <c r="L3" s="3"/>
+      <c r="L3" s="4"/>
       <c r="M3">
         <v>181.5</v>
       </c>
@@ -3193,24 +3211,31 @@
         <v>176.07633333333334</v>
       </c>
       <c r="R3" s="1">
-        <f t="shared" ref="R3:R8" si="1">AVERAGE(F3,K3,P3)</f>
+        <f t="shared" ref="R3:R8" si="1">_xlfn.STDEV.S(C3,H3,M3)</f>
+        <v>20.694588431117282</v>
+      </c>
+      <c r="S3" s="1">
+        <f t="shared" ref="S3:S8" si="2">AVERAGE(F3,K3,P3)</f>
         <v>87.980902288447183</v>
       </c>
-      <c r="S3" s="4">
-        <f t="shared" ref="S3:S8" si="2">Q3/R3</f>
+      <c r="T3" s="3">
+        <f t="shared" ref="T3:T8" si="3">Q3/S3</f>
         <v>2.0013017456454754</v>
       </c>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
+      <c r="U3" s="2">
+        <f t="shared" ref="U3:U8" si="4">R3/S3</f>
+        <v>0.23521682425203655</v>
+      </c>
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>9</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="4"/>
       <c r="C4">
         <v>160.74700000000001</v>
       </c>
@@ -3221,10 +3246,10 @@
         <v>219</v>
       </c>
       <c r="F4" s="1">
-        <f t="shared" ref="F4:F8" si="3">SQRT(((D4-C4)^2+(E4-C4)^2)/2)</f>
+        <f t="shared" ref="F4:F8" si="5">SQRT(((D4-C4)^2+(E4-C4)^2)/2)</f>
         <v>69.262190327768295</v>
       </c>
-      <c r="G4" s="3"/>
+      <c r="G4" s="4"/>
       <c r="H4">
         <v>193.38499999999999</v>
       </c>
@@ -3235,10 +3260,10 @@
         <v>263</v>
       </c>
       <c r="K4" s="1">
-        <f t="shared" ref="K4:K8" si="4">SQRT(((I4-H4)^2+(J4-H4)^2)/2)</f>
+        <f t="shared" ref="K4:K8" si="6">SQRT(((I4-H4)^2+(J4-H4)^2)/2)</f>
         <v>95.895037541053185</v>
       </c>
-      <c r="L4" s="3"/>
+      <c r="L4" s="4"/>
       <c r="M4">
         <v>185.53200000000001</v>
       </c>
@@ -3253,28 +3278,35 @@
         <v>90.523295476910263</v>
       </c>
       <c r="Q4" s="1">
-        <f t="shared" ref="Q4:Q8" si="5">AVERAGE(C4,H4,M4)</f>
+        <f t="shared" ref="Q4:Q8" si="7">AVERAGE(C4,H4,M4)</f>
         <v>179.88800000000001</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="1"/>
+        <v>17.035281418280114</v>
+      </c>
+      <c r="S4" s="1">
+        <f t="shared" si="2"/>
         <v>85.226841115243914</v>
       </c>
-      <c r="S4" s="4">
-        <f t="shared" si="2"/>
+      <c r="T4" s="3">
+        <f t="shared" si="3"/>
         <v>2.1106965557570656</v>
       </c>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
+      <c r="U4" s="2">
+        <f t="shared" si="4"/>
+        <v>0.19988164755801485</v>
+      </c>
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>17</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="4"/>
       <c r="C5">
         <v>161.34100000000001</v>
       </c>
@@ -3285,10 +3317,10 @@
         <v>214</v>
       </c>
       <c r="F5" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>66.161168981510599</v>
       </c>
-      <c r="G5" s="3"/>
+      <c r="G5" s="4"/>
       <c r="H5">
         <v>198.572</v>
       </c>
@@ -3299,10 +3331,10 @@
         <v>270</v>
       </c>
       <c r="K5" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>97.880739596715344</v>
       </c>
-      <c r="L5" s="3"/>
+      <c r="L5" s="4"/>
       <c r="M5">
         <v>187.708</v>
       </c>
@@ -3317,28 +3349,35 @@
         <v>90.944979322665191</v>
       </c>
       <c r="Q5" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>182.54033333333334</v>
       </c>
       <c r="R5" s="1">
         <f t="shared" si="1"/>
+        <v>19.145898368406044</v>
+      </c>
+      <c r="S5" s="1">
+        <f t="shared" si="2"/>
         <v>84.99562930029704</v>
       </c>
-      <c r="S5" s="4">
-        <f t="shared" si="2"/>
+      <c r="T5" s="3">
+        <f t="shared" si="3"/>
         <v>2.1476437651682332</v>
       </c>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
+      <c r="U5" s="2">
+        <f t="shared" si="4"/>
+        <v>0.2252574458947989</v>
+      </c>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>25</v>
       </c>
-      <c r="B6" s="3"/>
+      <c r="B6" s="4"/>
       <c r="C6">
         <v>166.428</v>
       </c>
@@ -3349,10 +3388,10 @@
         <v>222</v>
       </c>
       <c r="F6" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>69.709276168957601</v>
       </c>
-      <c r="G6" s="3"/>
+      <c r="G6" s="4"/>
       <c r="H6">
         <v>199.505</v>
       </c>
@@ -3363,10 +3402,10 @@
         <v>274</v>
       </c>
       <c r="K6" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>97.78271843735989</v>
       </c>
-      <c r="L6" s="3"/>
+      <c r="L6" s="4"/>
       <c r="M6">
         <v>192.27799999999999</v>
       </c>
@@ -3381,28 +3420,35 @@
         <v>88.899298557412706</v>
       </c>
       <c r="Q6" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>186.07033333333334</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="1"/>
+        <v>17.390322778296362</v>
+      </c>
+      <c r="S6" s="1">
+        <f t="shared" si="2"/>
         <v>85.463764387910075</v>
       </c>
-      <c r="S6" s="4">
-        <f t="shared" si="2"/>
+      <c r="T6" s="3">
+        <f t="shared" si="3"/>
         <v>2.1771839172538874</v>
       </c>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
+      <c r="U6" s="2">
+        <f t="shared" si="4"/>
+        <v>0.20348182534253595</v>
+      </c>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>36</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="4"/>
       <c r="C7">
         <v>172.55</v>
       </c>
@@ -3413,10 +3459,10 @@
         <v>224</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>65.806933525275284</v>
       </c>
-      <c r="G7" s="3"/>
+      <c r="G7" s="4"/>
       <c r="H7">
         <v>207.63</v>
       </c>
@@ -3427,10 +3473,10 @@
         <v>285</v>
       </c>
       <c r="K7" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>97.205693763277054</v>
       </c>
-      <c r="L7" s="3"/>
+      <c r="L7" s="4"/>
       <c r="M7">
         <v>201.375</v>
       </c>
@@ -3445,28 +3491,35 @@
         <v>90.287128789213355</v>
       </c>
       <c r="Q7" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>193.85166666666669</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="1"/>
+        <v>18.711013022638113</v>
+      </c>
+      <c r="S7" s="1">
+        <f t="shared" si="2"/>
         <v>84.433252025921888</v>
       </c>
-      <c r="S7" s="4">
-        <f t="shared" si="2"/>
+      <c r="T7" s="3">
+        <f t="shared" si="3"/>
         <v>2.2959161469601126</v>
       </c>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
+      <c r="U7" s="2">
+        <f t="shared" si="4"/>
+        <v>0.22160715800563546</v>
+      </c>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>52</v>
       </c>
-      <c r="B8" s="3"/>
+      <c r="B8" s="4"/>
       <c r="C8">
         <v>181.92599999999999</v>
       </c>
@@ -3477,10 +3530,10 @@
         <v>237</v>
       </c>
       <c r="F8" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>69.21763847459691</v>
       </c>
-      <c r="G8" s="3"/>
+      <c r="G8" s="4"/>
       <c r="H8">
         <v>216.053</v>
       </c>
@@ -3491,10 +3544,10 @@
         <v>291</v>
       </c>
       <c r="K8" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>93.567113928986828</v>
       </c>
-      <c r="L8" s="3"/>
+      <c r="L8" s="4"/>
       <c r="M8">
         <v>207.05099999999999</v>
       </c>
@@ -3509,22 +3562,29 @@
         <v>85.917626835242601</v>
       </c>
       <c r="Q8" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>201.67666666666665</v>
       </c>
       <c r="R8" s="1">
         <f t="shared" si="1"/>
+        <v>17.68687723520841</v>
+      </c>
+      <c r="S8" s="1">
+        <f t="shared" si="2"/>
         <v>82.900793079608789</v>
       </c>
-      <c r="S8" s="4">
-        <f t="shared" si="2"/>
+      <c r="T8" s="3">
+        <f t="shared" si="3"/>
         <v>2.4327471327445394</v>
       </c>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
+      <c r="U8" s="2">
+        <f t="shared" si="4"/>
+        <v>0.21334991594379418</v>
+      </c>
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">
